--- a/ZachSwain_MSEG804-Exam2_#2.xlsx
+++ b/ZachSwain_MSEG804-Exam2_#2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The Terminator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F031F78-B096-4BE6-9DA2-FD6AC729B7D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D430640-DCA4-4DE9-B6EB-380B55FB654B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17595" yWindow="4080" windowWidth="21600" windowHeight="11385" xr2:uid="{D8FA8AD5-6A98-4DF6-A67F-78F26CEE7D5E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>X_t</t>
   </si>
@@ -56,6 +56,45 @@
   <si>
     <t>log(-ln(1-X_t))</t>
   </si>
+  <si>
+    <t>log(k)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k </t>
+  </si>
+  <si>
+    <t>xtal</t>
+  </si>
+  <si>
+    <t>nucleation</t>
+  </si>
+  <si>
+    <t>rate det.</t>
+  </si>
+  <si>
+    <t>disk</t>
+  </si>
+  <si>
+    <t>sporadic</t>
+  </si>
+  <si>
+    <t>diffusion</t>
+  </si>
+  <si>
+    <t>rod</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +129,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -116,11 +164,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -140,6 +228,27 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4349,16 +4458,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4685,10 +4794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678F9C5C-7E31-4F8C-A1A5-9BAF84DBC6BC}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5294,6 +5403,137 @@
         <v>1.8027737252919758</v>
       </c>
     </row>
+    <row r="49" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H49" s="9"/>
+      <c r="I49" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H50" s="9"/>
+      <c r="I50" s="3">
+        <v>110</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-3.2370000000000001</v>
+      </c>
+      <c r="L50" s="16">
+        <f>10^K50</f>
+        <v>5.7942869642688068E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H51" s="9"/>
+      <c r="I51" s="3">
+        <v>236</v>
+      </c>
+      <c r="J51" s="3">
+        <v>3.9049999999999998</v>
+      </c>
+      <c r="K51" s="11">
+        <v>-6.4569999999999999</v>
+      </c>
+      <c r="L51" s="11">
+        <f>10^K51</f>
+        <v>3.4914031547858547E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H52" s="9"/>
+      <c r="I52" s="3">
+        <v>240</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3.7290000000000001</v>
+      </c>
+      <c r="K52" s="11">
+        <v>-7.2050000000000001</v>
+      </c>
+      <c r="L52" s="11">
+        <f>10^K52</f>
+        <v>6.2373483548241788E-8</v>
+      </c>
+    </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H55" s="9"/>
+      <c r="I55" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H56" s="9"/>
+      <c r="I56" s="3">
+        <v>110</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H57" s="9"/>
+      <c r="I57" s="3">
+        <v>236</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H58" s="9"/>
+      <c r="I58" s="3">
+        <v>240</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
